--- a/biology/Zoologie/Drymobius_chloroticus/Drymobius_chloroticus.xlsx
+++ b/biology/Zoologie/Drymobius_chloroticus/Drymobius_chloroticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymobius chloroticus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymobius chloroticus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Guatemala ;
 au Honduras où elle est présente entre 780 et 1 900 m d'altitude ;
 dans le sud-est du Mexique (États de Chiapas, d'Hidalgo, d'Oaxaca, de Puebla, de San Luis Potosí et de Veracruz) ;
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Cope indique que le spécimen en sa possession mesure 105 cm dont 34 cm pour la queue. Son dos est vert et sa face ventrale jaune.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Cope indique que le spécimen en sa possession mesure 105 cm dont 34 cm pour la queue. Son dos est vert et sa face ventrale jaune.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1886 : Thirteenth Contribution to the Herpetology of Tropical America. Proceedings of the American Philosophical Society, vol. 23, n. 122, p. 271-287 (texte intégral).</t>
         </is>
